--- a/Data_Testing.xlsx
+++ b/Data_Testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -56,40 +56,46 @@
     <t>Keterangan</t>
   </si>
   <si>
-    <t>Muhammad Ibu Muzaky</t>
+    <t>Muhammad Riski Ali Marda</t>
   </si>
   <si>
     <t>Bersama Orang Tua</t>
   </si>
   <si>
-    <t>Sepeda Motor</t>
+    <t>Jalan Kaki</t>
   </si>
   <si>
     <t>Tidak</t>
   </si>
   <si>
+    <t>PNS</t>
+  </si>
+  <si>
+    <t>Tinggi</t>
+  </si>
+  <si>
+    <t>Tidak Bekerja</t>
+  </si>
+  <si>
+    <t>Tidak Berpenghasilan</t>
+  </si>
+  <si>
+    <t>Tidak Layak</t>
+  </si>
+  <si>
+    <t>Suri Maryanti</t>
+  </si>
+  <si>
+    <t>Ya</t>
+  </si>
+  <si>
     <t>Nelayan</t>
   </si>
   <si>
     <t>Rendah</t>
   </si>
   <si>
-    <t>Tidak Bekerja</t>
-  </si>
-  <si>
-    <t>Tidak Berpenghasilan</t>
-  </si>
-  <si>
     <t>Layak</t>
-  </si>
-  <si>
-    <t>Suri Maryanti</t>
-  </si>
-  <si>
-    <t>Jalan Kaki</t>
-  </si>
-  <si>
-    <t>Ya</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -533,16 +539,16 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
@@ -551,13 +557,13 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
